--- a/Doc/XmlDataDocument_170401_비용계수작업.xlsx
+++ b/Doc/XmlDataDocument_170401_비용계수작업.xlsx
@@ -2693,40 +2693,6 @@
   <dxfs count="37">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <condense val="0"/>
         <extend val="0"/>
         <color rgb="FF9C0006"/>
@@ -3026,6 +2992,40 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3494,7 +3494,7 @@
     <tableColumn id="16" uniqueName="value" name="value">
       <xmlColumnPr mapId="29" xpath="/Researches/Research/Bonus/@value" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="17" uniqueName="stringvalue" name="stringvalue" dataDxfId="0">
+    <tableColumn id="17" uniqueName="stringvalue" name="stringvalue" dataDxfId="22">
       <xmlColumnPr mapId="29" xpath="/Researches/Research/Bonus/@stringvalue" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3522,13 +3522,13 @@
     <tableColumn id="3" uniqueName="basecastintervalxk" name="basecastintervalxk">
       <xmlColumnPr mapId="23" xpath="/Elementals/Elemental/@basecastintervalxk" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="basedensity" name="basedensity" dataDxfId="22">
+    <tableColumn id="4" uniqueName="basedensity" name="basedensity" dataDxfId="21">
       <xmlColumnPr mapId="23" xpath="/Elementals/Elemental/@basedensity" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="baseprice" name="baseprice" dataDxfId="21">
+    <tableColumn id="10" uniqueName="baseprice" name="baseprice" dataDxfId="20">
       <xmlColumnPr mapId="23" xpath="/Elementals/Elemental/@baseprice" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="baselevel" name="baselevel" dataDxfId="20">
+    <tableColumn id="5" uniqueName="baselevel" name="baselevel" dataDxfId="19">
       <xmlColumnPr mapId="23" xpath="/Elementals/Elemental/@baselevel" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="6" uniqueName="prefab" name="prefab">
@@ -3541,7 +3541,7 @@
     <tableColumn id="8" uniqueName="baseskillratexk" name="baseskillratexk">
       <xmlColumnPr mapId="23" xpath="/Elementals/Elemental/@baseskillratexk" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="baseskilldamagexh" name="baseskilldamagexh" dataDxfId="19">
+    <tableColumn id="9" uniqueName="baseskilldamagexh" name="baseskilldamagexh" dataDxfId="18">
       <xmlColumnPr mapId="23" xpath="/Elementals/Elemental/@baseskilldamagexh" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
@@ -3550,7 +3550,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="표6" displayName="표6" ref="L1:N13" tableType="xml" totalsRowShown="0" headerRowDxfId="18" connectionId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="표6" displayName="표6" ref="L1:N13" tableType="xml" totalsRowShown="0" headerRowDxfId="17" connectionId="9">
   <autoFilter ref="L1:N13">
     <filterColumn colId="1"/>
   </autoFilter>
@@ -3558,7 +3558,7 @@
     <tableColumn id="1" uniqueName="fromlevel" name="fromlevel">
       <xmlColumnPr mapId="22" xpath="/Prices/Price/@fromlevel" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="tolevel" name="tolevel" dataDxfId="17">
+    <tableColumn id="3" uniqueName="tolevel" name="tolevel" dataDxfId="16">
       <calculatedColumnFormula>L3-1</calculatedColumnFormula>
       <xmlColumnPr mapId="22" xpath="/Prices/Price/@tolevel" xmlDataType="integer"/>
     </tableColumn>
@@ -3571,50 +3571,50 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표28_24" displayName="표28_24" ref="A1:M18" tableType="xml" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" connectionId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표28_24" displayName="표28_24" ref="A1:M18" tableType="xml" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" connectionId="20">
   <autoFilter ref="A1:M18">
     <filterColumn colId="12"/>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" uniqueName="id" name="id" dataDxfId="14">
+    <tableColumn id="1" uniqueName="id" name="id" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/@id" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="requireid" name="requireid" dataDxfId="13">
+    <tableColumn id="2" uniqueName="requireid" name="requireid" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/@requireid" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="type" name="type" dataDxfId="12">
+    <tableColumn id="7" uniqueName="type" name="type" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/@type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="maxlevelper10" name="maxlevelper10" dataDxfId="11">
+    <tableColumn id="9" uniqueName="maxlevelper10" name="maxlevelper10" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/@maxlevelper10" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="icon" name="icon" dataDxfId="10">
+    <tableColumn id="4" uniqueName="icon" name="icon" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Info/@icon" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="subicon" name="subicon" dataDxfId="9">
+    <tableColumn id="13" uniqueName="subicon" name="subicon" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Info/@subicon" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="name" name="name" dataDxfId="8">
+    <tableColumn id="5" uniqueName="name" name="name" dataDxfId="7">
       <calculatedColumnFormula>CONCATENATE("@S",표28_24[[#This Row],[id]],"N@")</calculatedColumnFormula>
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Info/@name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="description" name="descrption" dataDxfId="7">
+    <tableColumn id="6" uniqueName="description" name="descrption" dataDxfId="6">
       <calculatedColumnFormula>CONCATENATE("@S",표28_24[[#This Row],[id]],"D@")</calculatedColumnFormula>
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Info/@description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="rate" name="rate" dataDxfId="6">
+    <tableColumn id="8" uniqueName="rate" name="rate" dataDxfId="5">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Rate/@rate" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="absrate" name="absrate" dataDxfId="5">
+    <tableColumn id="12" uniqueName="absrate" name="absrate" dataDxfId="4">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Rate/@absrate" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="target" name="target" dataDxfId="4">
+    <tableColumn id="10" uniqueName="target" name="target" dataDxfId="3">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Bonus/@target" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="attribute" name="attribute" dataDxfId="3">
+    <tableColumn id="11" uniqueName="attribute" name="attribute" dataDxfId="2">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Bonus/@attribute" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="value" name="value" dataDxfId="2">
+    <tableColumn id="3" uniqueName="value" name="value" dataDxfId="1">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Bonus/@value" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
@@ -5945,8 +5945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6292,7 +6292,7 @@
         <v>80</v>
       </c>
       <c r="M7">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>12</v>
@@ -6338,8 +6338,8 @@
       <c r="L8">
         <v>80</v>
       </c>
-      <c r="M8">
-        <v>45</v>
+      <c r="M8" s="37">
+        <v>75</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>257</v>
@@ -6385,8 +6385,8 @@
       <c r="L9">
         <v>80</v>
       </c>
-      <c r="M9">
-        <v>45</v>
+      <c r="M9" s="37">
+        <v>75</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>33</v>
@@ -6432,8 +6432,8 @@
       <c r="L10">
         <v>80</v>
       </c>
-      <c r="M10">
-        <v>45</v>
+      <c r="M10" s="37">
+        <v>75</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>18</v>
@@ -6479,8 +6479,8 @@
       <c r="L11">
         <v>80</v>
       </c>
-      <c r="M11">
-        <v>45</v>
+      <c r="M11" s="37">
+        <v>75</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>14</v>
@@ -6729,7 +6729,7 @@
         <v>80</v>
       </c>
       <c r="M16">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>23</v>
@@ -6781,8 +6781,8 @@
       <c r="L17">
         <v>80</v>
       </c>
-      <c r="M17">
-        <v>60</v>
+      <c r="M17" s="37">
+        <v>100</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>23</v>
@@ -6834,8 +6834,8 @@
       <c r="L18">
         <v>80</v>
       </c>
-      <c r="M18">
-        <v>60</v>
+      <c r="M18" s="37">
+        <v>100</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>23</v>
@@ -6887,8 +6887,8 @@
       <c r="L19">
         <v>80</v>
       </c>
-      <c r="M19">
-        <v>60</v>
+      <c r="M19" s="37">
+        <v>100</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>23</v>
@@ -6940,8 +6940,8 @@
       <c r="L20">
         <v>80</v>
       </c>
-      <c r="M20">
-        <v>60</v>
+      <c r="M20" s="37">
+        <v>100</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>23</v>
@@ -6993,8 +6993,8 @@
       <c r="L21">
         <v>80</v>
       </c>
-      <c r="M21">
-        <v>60</v>
+      <c r="M21" s="37">
+        <v>100</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>11</v>
@@ -7046,8 +7046,8 @@
       <c r="L22">
         <v>80</v>
       </c>
-      <c r="M22">
-        <v>60</v>
+      <c r="M22" s="37">
+        <v>100</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>11</v>
@@ -7099,8 +7099,8 @@
       <c r="L23">
         <v>80</v>
       </c>
-      <c r="M23">
-        <v>60</v>
+      <c r="M23" s="37">
+        <v>100</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>11</v>
@@ -7152,8 +7152,8 @@
       <c r="L24">
         <v>80</v>
       </c>
-      <c r="M24">
-        <v>60</v>
+      <c r="M24" s="37">
+        <v>100</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>11</v>
@@ -7205,8 +7205,8 @@
       <c r="L25">
         <v>80</v>
       </c>
-      <c r="M25">
-        <v>60</v>
+      <c r="M25" s="37">
+        <v>100</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>11</v>
@@ -7258,8 +7258,8 @@
       <c r="L26">
         <v>80</v>
       </c>
-      <c r="M26">
-        <v>60</v>
+      <c r="M26" s="37">
+        <v>100</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>11</v>
@@ -7311,8 +7311,8 @@
       <c r="L27">
         <v>80</v>
       </c>
-      <c r="M27">
-        <v>60</v>
+      <c r="M27" s="37">
+        <v>100</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>264</v>
@@ -7364,8 +7364,8 @@
       <c r="L28">
         <v>80</v>
       </c>
-      <c r="M28">
-        <v>60</v>
+      <c r="M28" s="37">
+        <v>100</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>264</v>
@@ -7417,8 +7417,8 @@
       <c r="L29">
         <v>80</v>
       </c>
-      <c r="M29">
-        <v>60</v>
+      <c r="M29" s="37">
+        <v>100</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>264</v>
@@ -7470,8 +7470,8 @@
       <c r="L30">
         <v>80</v>
       </c>
-      <c r="M30">
-        <v>60</v>
+      <c r="M30" s="37">
+        <v>100</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>264</v>
@@ -7523,8 +7523,8 @@
       <c r="L31">
         <v>80</v>
       </c>
-      <c r="M31">
-        <v>60</v>
+      <c r="M31" s="37">
+        <v>100</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>15</v>
@@ -7576,8 +7576,8 @@
       <c r="L32">
         <v>80</v>
       </c>
-      <c r="M32">
-        <v>60</v>
+      <c r="M32" s="37">
+        <v>100</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>15</v>
@@ -7629,8 +7629,8 @@
       <c r="L33">
         <v>80</v>
       </c>
-      <c r="M33">
-        <v>60</v>
+      <c r="M33" s="37">
+        <v>100</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>15</v>
@@ -7682,8 +7682,8 @@
       <c r="L34">
         <v>80</v>
       </c>
-      <c r="M34">
-        <v>60</v>
+      <c r="M34" s="37">
+        <v>100</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>17</v>
@@ -7735,8 +7735,8 @@
       <c r="L35">
         <v>80</v>
       </c>
-      <c r="M35">
-        <v>60</v>
+      <c r="M35" s="37">
+        <v>100</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>17</v>
@@ -7788,8 +7788,8 @@
       <c r="L36">
         <v>80</v>
       </c>
-      <c r="M36">
-        <v>60</v>
+      <c r="M36" s="37">
+        <v>100</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>252</v>
@@ -7840,7 +7840,7 @@
       <c r="L37">
         <v>0</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="37">
         <v>0</v>
       </c>
       <c r="N37" s="1" t="s">
@@ -7892,7 +7892,7 @@
       <c r="L38">
         <v>0</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="37">
         <v>0</v>
       </c>
       <c r="N38" s="1" t="s">
@@ -7944,7 +7944,7 @@
       <c r="L39">
         <v>0</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="37">
         <v>0</v>
       </c>
       <c r="N39" s="1" t="s">
@@ -36073,7 +36073,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Doc/XmlDataDocument_170401_비용계수작업.xlsx
+++ b/Doc/XmlDataDocument_170401_비용계수작업.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15300" yWindow="45" windowWidth="12300" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="15300" yWindow="45" windowWidth="12300" windowHeight="13020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Consumable" sheetId="7" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
     <sheet name="Bonus" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -41,50 +41,53 @@
   <connection id="7" name="element4" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\element.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="8" name="price" type="4" refreshedVersion="0" background="1">
+  <connection id="8" name="element5" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\element.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="9" name="price" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\price.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="9" name="price1" type="4" refreshedVersion="0" background="1">
+  <connection id="10" name="price1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\price.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="10" name="research" type="4" refreshedVersion="0" background="1">
+  <connection id="11" name="research" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\research.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="11" name="research1" type="4" refreshedVersion="0" background="1">
+  <connection id="12" name="research1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\research.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="12" name="research2" type="4" refreshedVersion="0" background="1">
+  <connection id="13" name="research2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\research.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="13" name="research3" type="4" refreshedVersion="0" background="1">
+  <connection id="14" name="research3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\research.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="14" name="research4" type="4" refreshedVersion="0" background="1">
+  <connection id="15" name="research4" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\research.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="15" name="research5" type="4" refreshedVersion="0" background="1">
+  <connection id="16" name="research5" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\research.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="16" name="research6" type="4" refreshedVersion="0" background="1">
+  <connection id="17" name="research6" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\research.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="17" name="research7" type="4" refreshedVersion="0" background="1">
+  <connection id="18" name="research7" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\research.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="18" name="research8" type="4" refreshedVersion="0" background="1">
+  <connection id="19" name="research8" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\research.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="19" name="talent" type="4" refreshedVersion="0" background="1">
+  <connection id="20" name="talent" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\talent.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="20" name="talent1" type="4" refreshedVersion="0" background="1">
+  <connection id="21" name="talent1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\talent.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="513">
   <si>
     <t>hero</t>
   </si>
@@ -2109,6 +2112,10 @@
   </si>
   <si>
     <t>Enchant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enchantdensity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2690,7 +2697,32 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="38">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -3302,30 +3334,6 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Schema ID="Schema11">
-    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
-      <xsd:element nillable="true" name="Elementals">
-        <xsd:complexType>
-          <xsd:sequence minOccurs="0">
-            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Elemental" form="unqualified">
-              <xsd:complexType>
-                <xsd:attribute name="id" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="name" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="basecastintervalxk" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="basedensity" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="baseprice" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="baselevel" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="prefab" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="skillprefab" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="baseskillratexk" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="baseskilldamagexh" form="unqualified" type="xsd:integer"/>
-              </xsd:complexType>
-            </xsd:element>
-          </xsd:sequence>
-        </xsd:complexType>
-      </xsd:element>
-    </xsd:schema>
-  </Schema>
   <Schema ID="Schema12">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="Researches">
@@ -3375,64 +3383,89 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="23" Name="Elementals_맵" RootElement="Elementals" SchemaID="Schema11" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="7" DataBindingLoadMode="1"/>
+  <Schema ID="Schema5">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="Elementals">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Elemental" form="unqualified">
+              <xsd:complexType>
+                <xsd:attribute name="id" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="name" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="basecastintervalxk" form="unqualified" type="xsd:integer"/>
+                <xsd:attribute name="basedensity" form="unqualified" type="xsd:integer"/>
+                <xsd:attribute name="enchantdensity" form="unqualified" type="xsd:integer"/>
+                <xsd:attribute name="baseprice" form="unqualified" type="xsd:integer"/>
+                <xsd:attribute name="baselevel" form="unqualified" type="xsd:integer"/>
+                <xsd:attribute name="prefab" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="skillprefab" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="baseskillratexk" form="unqualified" type="xsd:integer"/>
+                <xsd:attribute name="baseskilldamagexh" form="unqualified" type="xsd:integer"/>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Map ID="31" Name="Elementals_맵" RootElement="Elementals" SchemaID="Schema5" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="8" DataBindingLoadMode="1"/>
   </Map>
   <Map ID="22" Name="Prices_맵" RootElement="Prices" SchemaID="Schema10" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="9" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="10" DataBindingLoadMode="1"/>
   </Map>
   <Map ID="29" Name="Researches_맵" RootElement="Researches" SchemaID="Schema12" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="18" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="19" DataBindingLoadMode="1"/>
   </Map>
   <Map ID="12" Name="Talents_맵" RootElement="Talents" SchemaID="Schema8" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="20" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="21" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="표28_245" displayName="표28_245" ref="A1:M50" tableType="xml" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" connectionId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="표28_245" displayName="표28_245" ref="A1:M50" tableType="xml" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" connectionId="21">
   <autoFilter ref="A1:M50">
     <filterColumn colId="1"/>
     <filterColumn colId="5"/>
     <filterColumn colId="12"/>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" uniqueName="id" name="id" dataDxfId="34">
+    <tableColumn id="1" uniqueName="id" name="id" dataDxfId="35">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/@id" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="15" uniqueName="15" name="group" dataDxfId="33"/>
+    <tableColumn id="15" uniqueName="15" name="group" dataDxfId="34"/>
     <tableColumn id="5" uniqueName="name" name="name" dataCellStyle="표준">
       <calculatedColumnFormula>CONCATENATE("@S",표28_245[[#This Row],[id]],"N@")</calculatedColumnFormula>
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Info/@name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="requireid" name="requireid" dataDxfId="32">
+    <tableColumn id="2" uniqueName="requireid" name="requireid" dataDxfId="33">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/@requireid" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="icon" name="icon" dataDxfId="31">
+    <tableColumn id="4" uniqueName="icon" name="icon" dataDxfId="32">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Info/@icon" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="14" uniqueName="14" name="icontext" dataDxfId="30"/>
-    <tableColumn id="13" uniqueName="subicon" name="subicon" dataDxfId="29">
+    <tableColumn id="14" uniqueName="14" name="icontext" dataDxfId="31"/>
+    <tableColumn id="13" uniqueName="subicon" name="subicon" dataDxfId="30">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Info/@subicon" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="description" name="descrption" dataDxfId="28">
+    <tableColumn id="6" uniqueName="description" name="descrption" dataDxfId="29">
       <calculatedColumnFormula>CONCATENATE("@S",표28_245[[#This Row],[id]],"D@")</calculatedColumnFormula>
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Info/@description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="type" name="stack" dataDxfId="27">
+    <tableColumn id="7" uniqueName="type" name="stack" dataDxfId="28">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/@type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="rate" name="rate" dataDxfId="26">
+    <tableColumn id="8" uniqueName="rate" name="rate" dataDxfId="27">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Rate/@rate" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="target" name="target" dataDxfId="25">
+    <tableColumn id="10" uniqueName="target" name="target" dataDxfId="26">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Bonus/@target" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="attribute" name="attribute" dataDxfId="24">
+    <tableColumn id="11" uniqueName="attribute" name="attribute" dataDxfId="25">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Bonus/@attribute" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="value" name="value" dataDxfId="23">
+    <tableColumn id="3" uniqueName="value" name="value" dataDxfId="24">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Bonus/@value" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
@@ -3441,7 +3474,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:Q39" tableType="xml" totalsRowShown="0" connectionId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:Q39" tableType="xml" totalsRowShown="0" connectionId="19">
   <autoFilter ref="A1:Q39">
     <filterColumn colId="16"/>
   </autoFilter>
@@ -3494,7 +3527,7 @@
     <tableColumn id="16" uniqueName="value" name="value">
       <xmlColumnPr mapId="29" xpath="/Researches/Research/Bonus/@value" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="17" uniqueName="stringvalue" name="stringvalue" dataDxfId="22">
+    <tableColumn id="17" uniqueName="stringvalue" name="stringvalue" dataDxfId="23">
       <xmlColumnPr mapId="29" xpath="/Researches/Research/Bonus/@stringvalue" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3503,46 +3536,50 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="표30" displayName="표30" ref="A1:J10" tableType="xml" totalsRowShown="0" connectionId="7">
-  <autoFilter ref="A1:J10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="표30" displayName="표30" ref="A1:K10" tableType="xml" totalsRowShown="0" connectionId="8">
+  <autoFilter ref="A1:K10">
     <filterColumn colId="4"/>
-    <filterColumn colId="6"/>
+    <filterColumn colId="5"/>
     <filterColumn colId="7"/>
     <filterColumn colId="8"/>
     <filterColumn colId="9"/>
+    <filterColumn colId="10"/>
   </autoFilter>
-  <tableColumns count="10">
+  <tableColumns count="11">
     <tableColumn id="1" uniqueName="id" name="id">
-      <xmlColumnPr mapId="23" xpath="/Elementals/Elemental/@id" xmlDataType="string"/>
+      <xmlColumnPr mapId="31" xpath="/Elementals/Elemental/@id" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="name" name="name">
       <calculatedColumnFormula>CONCATENATE("$",표30[[#This Row],[id]],"$")</calculatedColumnFormula>
-      <xmlColumnPr mapId="23" xpath="/Elementals/Elemental/@name" xmlDataType="string"/>
+      <xmlColumnPr mapId="31" xpath="/Elementals/Elemental/@name" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="basecastintervalxk" name="basecastintervalxk">
-      <xmlColumnPr mapId="23" xpath="/Elementals/Elemental/@basecastintervalxk" xmlDataType="integer"/>
+      <xmlColumnPr mapId="31" xpath="/Elementals/Elemental/@basecastintervalxk" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="basedensity" name="basedensity" dataDxfId="21">
-      <xmlColumnPr mapId="23" xpath="/Elementals/Elemental/@basedensity" xmlDataType="integer"/>
+    <tableColumn id="4" uniqueName="basedensity" name="basedensity" dataDxfId="22">
+      <xmlColumnPr mapId="31" xpath="/Elementals/Elemental/@basedensity" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="baseprice" name="baseprice" dataDxfId="20">
-      <xmlColumnPr mapId="23" xpath="/Elementals/Elemental/@baseprice" xmlDataType="integer"/>
+    <tableColumn id="12" uniqueName="enchantdensity" name="enchantdensity" dataDxfId="0">
+      <xmlColumnPr mapId="31" xpath="/Elementals/Elemental/@enchantdensity" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="baselevel" name="baselevel" dataDxfId="19">
-      <xmlColumnPr mapId="23" xpath="/Elementals/Elemental/@baselevel" xmlDataType="integer"/>
+    <tableColumn id="10" uniqueName="baseprice" name="baseprice" dataDxfId="21">
+      <xmlColumnPr mapId="31" xpath="/Elementals/Elemental/@baseprice" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="5" uniqueName="baselevel" name="baselevel" dataDxfId="20">
+      <xmlColumnPr mapId="31" xpath="/Elementals/Elemental/@baselevel" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="6" uniqueName="prefab" name="prefab">
-      <xmlColumnPr mapId="23" xpath="/Elementals/Elemental/@prefab" xmlDataType="string"/>
+      <xmlColumnPr mapId="31" xpath="/Elementals/Elemental/@prefab" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="7" uniqueName="skillprefab" name="skillprefab">
       <calculatedColumnFormula>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]],"_skill")</calculatedColumnFormula>
-      <xmlColumnPr mapId="23" xpath="/Elementals/Elemental/@skillprefab" xmlDataType="string"/>
+      <xmlColumnPr mapId="31" xpath="/Elementals/Elemental/@skillprefab" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="8" uniqueName="baseskillratexk" name="baseskillratexk">
-      <xmlColumnPr mapId="23" xpath="/Elementals/Elemental/@baseskillratexk" xmlDataType="integer"/>
+      <xmlColumnPr mapId="31" xpath="/Elementals/Elemental/@baseskillratexk" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="baseskilldamagexh" name="baseskilldamagexh" dataDxfId="18">
-      <xmlColumnPr mapId="23" xpath="/Elementals/Elemental/@baseskilldamagexh" xmlDataType="integer"/>
+    <tableColumn id="9" uniqueName="baseskilldamagexh" name="baseskilldamagexh" dataDxfId="19">
+      <xmlColumnPr mapId="31" xpath="/Elementals/Elemental/@baseskilldamagexh" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3550,16 +3587,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="표6" displayName="표6" ref="L1:N13" tableType="xml" totalsRowShown="0" headerRowDxfId="17" connectionId="9">
-  <autoFilter ref="L1:N13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="표6" displayName="표6" ref="M1:O13" tableType="xml" totalsRowShown="0" headerRowDxfId="18" connectionId="10">
+  <autoFilter ref="M1:O13">
     <filterColumn colId="1"/>
   </autoFilter>
   <tableColumns count="3">
     <tableColumn id="1" uniqueName="fromlevel" name="fromlevel">
       <xmlColumnPr mapId="22" xpath="/Prices/Price/@fromlevel" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="tolevel" name="tolevel" dataDxfId="16">
-      <calculatedColumnFormula>L3-1</calculatedColumnFormula>
+    <tableColumn id="3" uniqueName="tolevel" name="tolevel" dataDxfId="17">
+      <calculatedColumnFormula>M3-1</calculatedColumnFormula>
       <xmlColumnPr mapId="22" xpath="/Prices/Price/@tolevel" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="base" name="totalbase">
@@ -3571,50 +3608,50 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표28_24" displayName="표28_24" ref="A1:M18" tableType="xml" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" connectionId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표28_24" displayName="표28_24" ref="A1:M18" tableType="xml" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" connectionId="21">
   <autoFilter ref="A1:M18">
     <filterColumn colId="12"/>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" uniqueName="id" name="id" dataDxfId="13">
+    <tableColumn id="1" uniqueName="id" name="id" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/@id" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="requireid" name="requireid" dataDxfId="12">
+    <tableColumn id="2" uniqueName="requireid" name="requireid" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/@requireid" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="type" name="type" dataDxfId="11">
+    <tableColumn id="7" uniqueName="type" name="type" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/@type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="maxlevelper10" name="maxlevelper10" dataDxfId="10">
+    <tableColumn id="9" uniqueName="maxlevelper10" name="maxlevelper10" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/@maxlevelper10" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="icon" name="icon" dataDxfId="9">
+    <tableColumn id="4" uniqueName="icon" name="icon" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Info/@icon" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="subicon" name="subicon" dataDxfId="8">
+    <tableColumn id="13" uniqueName="subicon" name="subicon" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Info/@subicon" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="name" name="name" dataDxfId="7">
+    <tableColumn id="5" uniqueName="name" name="name" dataDxfId="8">
       <calculatedColumnFormula>CONCATENATE("@S",표28_24[[#This Row],[id]],"N@")</calculatedColumnFormula>
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Info/@name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="description" name="descrption" dataDxfId="6">
+    <tableColumn id="6" uniqueName="description" name="descrption" dataDxfId="7">
       <calculatedColumnFormula>CONCATENATE("@S",표28_24[[#This Row],[id]],"D@")</calculatedColumnFormula>
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Info/@description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="rate" name="rate" dataDxfId="5">
+    <tableColumn id="8" uniqueName="rate" name="rate" dataDxfId="6">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Rate/@rate" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="absrate" name="absrate" dataDxfId="4">
+    <tableColumn id="12" uniqueName="absrate" name="absrate" dataDxfId="5">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Rate/@absrate" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="target" name="target" dataDxfId="3">
+    <tableColumn id="10" uniqueName="target" name="target" dataDxfId="4">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Bonus/@target" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="attribute" name="attribute" dataDxfId="2">
+    <tableColumn id="11" uniqueName="attribute" name="attribute" dataDxfId="3">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Bonus/@attribute" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="value" name="value" dataDxfId="1">
+    <tableColumn id="3" uniqueName="value" name="value" dataDxfId="2">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Bonus/@value" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
@@ -5945,7 +5982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -8651,10 +8688,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8663,18 +8700,19 @@
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.875" customWidth="1"/>
-    <col min="8" max="8" width="30.75" customWidth="1"/>
-    <col min="9" max="9" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.375" customWidth="1"/>
-    <col min="13" max="13" width="11.375" style="37" customWidth="1"/>
-    <col min="14" max="14" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="37" customWidth="1"/>
+    <col min="6" max="6" width="12" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.875" customWidth="1"/>
+    <col min="9" max="9" width="30.75" customWidth="1"/>
+    <col min="10" max="10" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.375" customWidth="1"/>
+    <col min="14" max="14" width="11.375" style="37" customWidth="1"/>
+    <col min="15" max="15" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.25" thickBot="1">
+    <row r="1" spans="1:16" ht="17.25" thickBot="1">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -8688,34 +8726,37 @@
         <v>442</v>
       </c>
       <c r="E1" s="74" t="s">
+        <v>512</v>
+      </c>
+      <c r="F1" s="74" t="s">
         <v>439</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="G1" s="74" t="s">
         <v>437</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="H1" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="I1" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="J1" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="K1" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="L1" s="74" t="s">
+      <c r="M1" s="74" t="s">
         <v>440</v>
       </c>
-      <c r="M1" s="74" t="s">
+      <c r="N1" s="74" t="s">
         <v>441</v>
       </c>
-      <c r="N1" s="74" t="s">
+      <c r="O1" s="74" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="17.25" thickTop="1">
+    <row r="2" spans="1:16" ht="17.25" thickTop="1">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -8726,46 +8767,50 @@
         <v>5600</v>
       </c>
       <c r="D2" s="61">
-        <f t="shared" ref="D2:D12" si="0">1+F2/200</f>
+        <f t="shared" ref="D2:D12" si="0">1+G2/200</f>
         <v>1</v>
       </c>
       <c r="E2" s="61">
+        <v>1</v>
+      </c>
+      <c r="F2" s="61">
         <v>60</v>
       </c>
-      <c r="F2" s="57">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="57">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="str">
         <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]])</f>
         <v>prefabs/Projectile/fireball</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="I2" s="1" t="str">
         <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]],"_skill")</f>
         <v>prefabs/Projectile/fireball_skill</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>120</v>
       </c>
-      <c r="J2" s="56">
+      <c r="K2" s="56">
         <v>225</v>
       </c>
-      <c r="L2">
-        <f t="shared" ref="L2:L12" si="1">F2</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <f t="shared" ref="M2:M12" si="2">L3-1</f>
+      <c r="M2">
+        <f t="shared" ref="M2:M12" si="1">G2</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <f t="shared" ref="N2:N12" si="2">M3-1</f>
         <v>14</v>
       </c>
-      <c r="N2" s="74">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <f>SUM(D$2:D2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2" s="74">
+        <f t="shared" ref="O2:O12" si="3">P2</f>
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <f>2*SUM(D$2:D2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -8780,43 +8825,47 @@
         <v>1.075</v>
       </c>
       <c r="E3" s="61">
+        <f>표30[[#This Row],[basedensity]]+E2</f>
+        <v>2.0750000000000002</v>
+      </c>
+      <c r="F3" s="61">
         <v>60</v>
       </c>
-      <c r="F3" s="58">
+      <c r="G3" s="58">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="H3" s="1" t="str">
         <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]])</f>
         <v>prefabs/Projectile/iceblock</v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="I3" s="1" t="str">
         <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]],"_skill")</f>
         <v>prefabs/Projectile/iceblock_skill</v>
       </c>
-      <c r="I3" s="37">
+      <c r="J3" s="37">
         <v>100</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>800</v>
       </c>
-      <c r="L3" s="37">
+      <c r="M3" s="37">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="N3" s="37">
-        <f t="shared" ref="N3:N12" si="3">1+O3</f>
-        <v>3.0750000000000002</v>
-      </c>
-      <c r="O3" s="37">
-        <f>SUM(D$2:D3)</f>
-        <v>2.0750000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="O3" s="74">
+        <f t="shared" si="3"/>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="P3" s="37">
+        <f>2*SUM(D$2:D3)</f>
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -8831,43 +8880,47 @@
         <v>1.175</v>
       </c>
       <c r="E4" s="61">
+        <f>표30[[#This Row],[basedensity]]+E3</f>
+        <v>3.25</v>
+      </c>
+      <c r="F4" s="61">
         <v>60</v>
       </c>
-      <c r="F4" s="59">
+      <c r="G4" s="59">
         <v>35</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="H4" s="1" t="str">
         <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]])</f>
         <v>prefabs/Projectile/rock</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="I4" s="1" t="str">
         <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]],"_skill")</f>
         <v>prefabs/Projectile/rock_skill</v>
       </c>
-      <c r="I4" s="37">
+      <c r="J4" s="37">
         <v>50</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>1550</v>
       </c>
-      <c r="L4" s="37">
+      <c r="M4" s="37">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="N4" s="37">
+      <c r="O4" s="74">
         <f t="shared" si="3"/>
-        <v>4.25</v>
-      </c>
-      <c r="O4" s="37">
-        <f>SUM(D$2:D4)</f>
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>6.5</v>
+      </c>
+      <c r="P4" s="37">
+        <f>2*SUM(D$2:D4)</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -8882,43 +8935,47 @@
         <v>1.3</v>
       </c>
       <c r="E5" s="61">
+        <f>표30[[#This Row],[basedensity]]+E4</f>
+        <v>4.55</v>
+      </c>
+      <c r="F5" s="61">
         <v>60</v>
       </c>
-      <c r="F5" s="60">
+      <c r="G5" s="60">
         <v>60</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="H5" s="1" t="str">
         <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]])</f>
         <v>prefabs/Projectile/electricball</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="I5" s="1" t="str">
         <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]],"_skill")</f>
         <v>prefabs/Projectile/electricball_skill</v>
       </c>
-      <c r="I5" s="37">
+      <c r="J5" s="37">
         <v>75</v>
       </c>
-      <c r="J5" s="56">
+      <c r="K5" s="56">
         <v>350</v>
       </c>
-      <c r="L5" s="37">
+      <c r="M5" s="37">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="N5" s="37">
+      <c r="O5" s="74">
         <f t="shared" si="3"/>
-        <v>5.55</v>
-      </c>
-      <c r="O5" s="37">
-        <f>SUM(D$2:D5)</f>
-        <v>4.55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>9.1</v>
+      </c>
+      <c r="P5" s="37">
+        <f>2*SUM(D$2:D5)</f>
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -8933,43 +8990,47 @@
         <v>1.45</v>
       </c>
       <c r="E6" s="61">
+        <f>표30[[#This Row],[basedensity]]+E5</f>
+        <v>6</v>
+      </c>
+      <c r="F6" s="61">
         <v>60</v>
       </c>
-      <c r="F6" s="61">
+      <c r="G6" s="61">
         <v>90</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="H6" s="1" t="str">
         <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]])</f>
         <v>prefabs/Projectile/waterball</v>
       </c>
-      <c r="H6" s="1" t="str">
+      <c r="I6" s="1" t="str">
         <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]],"_skill")</f>
         <v>prefabs/Projectile/waterball_skill</v>
       </c>
-      <c r="I6" s="37">
+      <c r="J6" s="37">
         <v>150</v>
       </c>
-      <c r="J6" s="56">
+      <c r="K6" s="56">
         <v>50</v>
       </c>
-      <c r="L6" s="37">
+      <c r="M6" s="37">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="N6" s="37">
+      <c r="O6" s="74">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="O6" s="37">
-        <f>SUM(D$2:D6)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12</v>
+      </c>
+      <c r="P6" s="37">
+        <f>2*SUM(D$2:D6)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -8984,43 +9045,47 @@
         <v>1.65</v>
       </c>
       <c r="E7" s="61">
+        <f>표30[[#This Row],[basedensity]]+E6</f>
+        <v>7.65</v>
+      </c>
+      <c r="F7" s="61">
         <v>60</v>
       </c>
-      <c r="F7" s="36">
+      <c r="G7" s="36">
         <v>130</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="H7" s="1" t="str">
         <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]])</f>
         <v>prefabs/Projectile/earthball</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="I7" s="1" t="str">
         <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]],"_skill")</f>
         <v>prefabs/Projectile/earthball_skill</v>
       </c>
-      <c r="I7" s="37">
+      <c r="J7" s="37">
         <v>30</v>
       </c>
-      <c r="J7" s="56">
+      <c r="K7" s="56">
         <v>850</v>
       </c>
-      <c r="L7" s="37">
+      <c r="M7" s="37">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <f t="shared" si="2"/>
         <v>179</v>
       </c>
-      <c r="N7" s="37">
+      <c r="O7" s="74">
         <f t="shared" si="3"/>
-        <v>8.65</v>
-      </c>
-      <c r="O7" s="37">
-        <f>SUM(D$2:D7)</f>
-        <v>7.65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>15.3</v>
+      </c>
+      <c r="P7" s="37">
+        <f>2*SUM(D$2:D7)</f>
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -9035,43 +9100,47 @@
         <v>1.9</v>
       </c>
       <c r="E8" s="61">
+        <f>표30[[#This Row],[basedensity]]+E7</f>
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="F8" s="61">
         <v>60</v>
       </c>
-      <c r="F8" s="36">
+      <c r="G8" s="36">
         <v>180</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="H8" s="1" t="str">
         <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]])</f>
         <v>prefabs/Projectile/airball</v>
       </c>
-      <c r="H8" s="1" t="str">
+      <c r="I8" s="1" t="str">
         <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]],"_skill")</f>
         <v>prefabs/Projectile/airball_skill</v>
       </c>
-      <c r="I8" s="37">
+      <c r="J8" s="37">
         <v>50</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>1550</v>
       </c>
-      <c r="L8" s="37">
+      <c r="M8" s="37">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <f t="shared" si="2"/>
         <v>229</v>
       </c>
-      <c r="N8" s="37">
+      <c r="O8" s="74">
         <f t="shared" si="3"/>
-        <v>10.55</v>
-      </c>
-      <c r="O8" s="37">
-        <f>SUM(D$2:D8)</f>
-        <v>9.5500000000000007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="P8" s="37">
+        <f>2*SUM(D$2:D8)</f>
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>193</v>
       </c>
@@ -9086,43 +9155,47 @@
         <v>2.15</v>
       </c>
       <c r="E9" s="61">
+        <f>표30[[#This Row],[basedensity]]+E8</f>
+        <v>11.700000000000001</v>
+      </c>
+      <c r="F9" s="61">
         <v>60</v>
       </c>
-      <c r="F9" s="36">
+      <c r="G9" s="36">
         <v>230</v>
       </c>
-      <c r="G9" s="1" t="str">
+      <c r="H9" s="1" t="str">
         <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]])</f>
         <v>prefabs/Projectile/snowball</v>
       </c>
-      <c r="H9" s="1" t="str">
+      <c r="I9" s="1" t="str">
         <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]],"_skill")</f>
         <v>prefabs/Projectile/snowball_skill</v>
       </c>
-      <c r="I9" s="37">
+      <c r="J9" s="37">
         <v>60</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>1300</v>
       </c>
-      <c r="L9" s="37">
+      <c r="M9" s="37">
         <f t="shared" si="1"/>
         <v>230</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <f t="shared" si="2"/>
         <v>279</v>
       </c>
-      <c r="N9" s="37">
+      <c r="O9" s="74">
         <f t="shared" si="3"/>
-        <v>12.700000000000001</v>
-      </c>
-      <c r="O9" s="37">
-        <f>SUM(D$2:D9)</f>
-        <v>11.700000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>23.400000000000002</v>
+      </c>
+      <c r="P9" s="37">
+        <f>2*SUM(D$2:D9)</f>
+        <v>23.400000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -9137,43 +9210,47 @@
         <v>2.4</v>
       </c>
       <c r="E10" s="61">
+        <f>표30[[#This Row],[basedensity]]+E9</f>
+        <v>14.100000000000001</v>
+      </c>
+      <c r="F10" s="61">
         <v>60</v>
       </c>
-      <c r="F10" s="36">
+      <c r="G10" s="36">
         <v>280</v>
       </c>
-      <c r="G10" s="1" t="str">
+      <c r="H10" s="1" t="str">
         <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]])</f>
         <v>prefabs/Projectile/magmaball</v>
       </c>
-      <c r="H10" s="1" t="str">
+      <c r="I10" s="1" t="str">
         <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]],"_skill")</f>
         <v>prefabs/Projectile/magmaball_skill</v>
       </c>
-      <c r="I10" s="37">
+      <c r="J10" s="37">
         <v>30</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>2550</v>
       </c>
-      <c r="L10" s="37">
+      <c r="M10" s="37">
         <f t="shared" si="1"/>
         <v>280</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <f t="shared" si="2"/>
         <v>329</v>
       </c>
-      <c r="N10" s="37">
+      <c r="O10" s="74">
         <f t="shared" si="3"/>
-        <v>15.100000000000001</v>
-      </c>
-      <c r="O10" s="37">
-        <f>SUM(D$2:D10)</f>
-        <v>14.100000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>28.200000000000003</v>
+      </c>
+      <c r="P10" s="37">
+        <f>2*SUM(D$2:D10)</f>
+        <v>28.200000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="37"/>
@@ -9181,145 +9258,148 @@
         <f t="shared" si="0"/>
         <v>2.65</v>
       </c>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65">
+      <c r="E11" s="75"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65">
         <v>330</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="L11" s="37">
+      <c r="K11" s="2"/>
+      <c r="M11" s="37">
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <f t="shared" si="2"/>
         <v>379</v>
       </c>
-      <c r="N11" s="37">
+      <c r="O11" s="74">
         <f t="shared" si="3"/>
-        <v>17.75</v>
-      </c>
-      <c r="O11" s="37">
-        <f>SUM(D$2:D11)</f>
-        <v>16.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>33.5</v>
+      </c>
+      <c r="P11" s="37">
+        <f>2*SUM(D$2:D11)</f>
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="D12" s="75">
         <f t="shared" si="0"/>
         <v>2.9</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12">
+      <c r="E12" s="75"/>
+      <c r="F12" s="65"/>
+      <c r="G12">
         <v>380</v>
       </c>
-      <c r="G12" s="37"/>
       <c r="H12" s="37"/>
       <c r="I12" s="37"/>
       <c r="J12" s="37"/>
-      <c r="L12" s="37">
+      <c r="K12" s="37"/>
+      <c r="M12" s="37">
         <f t="shared" si="1"/>
         <v>380</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="2">
         <f t="shared" si="2"/>
         <v>399</v>
       </c>
-      <c r="N12" s="37">
+      <c r="O12" s="74">
         <f t="shared" si="3"/>
-        <v>20.65</v>
-      </c>
-      <c r="O12" s="37">
-        <f>SUM(D$2:D12)</f>
-        <v>19.649999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="G13" s="39"/>
+        <v>39.299999999999997</v>
+      </c>
+      <c r="P12" s="37">
+        <f>2*SUM(D$2:D12)</f>
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="H13" s="39"/>
-      <c r="L13">
+      <c r="I13" s="39"/>
+      <c r="M13">
         <v>400</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <v>9999</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>99999999</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="I16" s="55"/>
-    </row>
-    <row r="17" spans="6:9">
-      <c r="F17" s="37"/>
-      <c r="I17" s="55"/>
-    </row>
-    <row r="18" spans="6:9">
-      <c r="G18" s="2">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="J16" s="55"/>
+    </row>
+    <row r="17" spans="7:10">
+      <c r="G17" s="37"/>
+      <c r="J17" s="55"/>
+    </row>
+    <row r="18" spans="7:10">
+      <c r="H18" s="2">
         <f>POWER(1.15, 1000)</f>
         <v>4.9870113152758409E+60</v>
       </c>
-      <c r="I18" s="55"/>
-    </row>
-    <row r="19" spans="6:9">
-      <c r="I19" s="55"/>
-    </row>
-    <row r="20" spans="6:9">
-      <c r="I20" s="55"/>
-    </row>
-    <row r="21" spans="6:9">
-      <c r="I21" s="55"/>
-    </row>
-    <row r="22" spans="6:9">
-      <c r="I22" s="55"/>
-    </row>
-    <row r="23" spans="6:9">
-      <c r="I23" s="55"/>
-    </row>
-    <row r="24" spans="6:9" ht="17.25" thickBot="1">
-      <c r="G24" s="40"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="55"/>
-    </row>
-    <row r="25" spans="6:9" ht="17.25" thickTop="1">
-      <c r="G25" s="42"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="55"/>
-    </row>
-    <row r="26" spans="6:9">
-      <c r="G26" s="44"/>
-      <c r="H26" s="45"/>
-    </row>
-    <row r="27" spans="6:9">
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-    </row>
-    <row r="28" spans="6:9">
-      <c r="G28" s="44"/>
-      <c r="H28" s="45"/>
-    </row>
-    <row r="29" spans="6:9">
-      <c r="G29" s="42"/>
-      <c r="H29" s="43"/>
-    </row>
-    <row r="30" spans="6:9">
-      <c r="G30" s="44"/>
-      <c r="H30" s="45"/>
-    </row>
-    <row r="31" spans="6:9">
-      <c r="G31" s="42"/>
-      <c r="H31" s="43"/>
-    </row>
-    <row r="32" spans="6:9">
-      <c r="G32" s="44"/>
-      <c r="H32" s="45"/>
-    </row>
-    <row r="33" spans="7:8">
-      <c r="G33" s="46"/>
-      <c r="H33" s="47"/>
+      <c r="J18" s="55"/>
+    </row>
+    <row r="19" spans="7:10">
+      <c r="J19" s="55"/>
+    </row>
+    <row r="20" spans="7:10">
+      <c r="J20" s="55"/>
+    </row>
+    <row r="21" spans="7:10">
+      <c r="J21" s="55"/>
+    </row>
+    <row r="22" spans="7:10">
+      <c r="J22" s="55"/>
+    </row>
+    <row r="23" spans="7:10">
+      <c r="J23" s="55"/>
+    </row>
+    <row r="24" spans="7:10" ht="17.25" thickBot="1">
+      <c r="H24" s="40"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="55"/>
+    </row>
+    <row r="25" spans="7:10" ht="17.25" thickTop="1">
+      <c r="H25" s="42"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="55"/>
+    </row>
+    <row r="26" spans="7:10">
+      <c r="H26" s="44"/>
+      <c r="I26" s="45"/>
+    </row>
+    <row r="27" spans="7:10">
+      <c r="H27" s="42"/>
+      <c r="I27" s="43"/>
+    </row>
+    <row r="28" spans="7:10">
+      <c r="H28" s="44"/>
+      <c r="I28" s="45"/>
+    </row>
+    <row r="29" spans="7:10">
+      <c r="H29" s="42"/>
+      <c r="I29" s="43"/>
+    </row>
+    <row r="30" spans="7:10">
+      <c r="H30" s="44"/>
+      <c r="I30" s="45"/>
+    </row>
+    <row r="31" spans="7:10">
+      <c r="H31" s="42"/>
+      <c r="I31" s="43"/>
+    </row>
+    <row r="32" spans="7:10">
+      <c r="H32" s="44"/>
+      <c r="I32" s="45"/>
+    </row>
+    <row r="33" spans="8:9">
+      <c r="H33" s="46"/>
+      <c r="I33" s="47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -36073,7 +36153,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36086,7 +36166,7 @@
   <dimension ref="A3:Z57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
